--- a/natmiOut/OldD7/LR-pairs_lrc2p/Nppc-Npr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Nppc-Npr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Npr2</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.81217991178229</v>
+        <v>0.01599966666666667</v>
       </c>
       <c r="H2">
-        <v>1.81217991178229</v>
+        <v>0.047999</v>
       </c>
       <c r="I2">
-        <v>0.5097566256413455</v>
+        <v>0.002186576436924975</v>
       </c>
       <c r="J2">
-        <v>0.5097566256413455</v>
+        <v>0.002186576436924975</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.8866912829468</v>
+        <v>16.243779</v>
       </c>
       <c r="N2">
-        <v>15.8866912829468</v>
+        <v>48.731337</v>
       </c>
       <c r="O2">
-        <v>0.4847819877567505</v>
+        <v>0.4875086269552682</v>
       </c>
       <c r="P2">
-        <v>0.4847819877567505</v>
+        <v>0.4875086269552682</v>
       </c>
       <c r="Q2">
-        <v>28.78954280764301</v>
+        <v>0.259895049407</v>
       </c>
       <c r="R2">
-        <v>28.78954280764301</v>
+        <v>2.339055444663</v>
       </c>
       <c r="S2">
-        <v>0.2471208302505852</v>
+        <v>0.001065974876498037</v>
       </c>
       <c r="T2">
-        <v>0.2471208302505852</v>
+        <v>0.001065974876498037</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.81217991178229</v>
+        <v>0.01599966666666667</v>
       </c>
       <c r="H3">
-        <v>1.81217991178229</v>
+        <v>0.047999</v>
       </c>
       <c r="I3">
-        <v>0.5097566256413455</v>
+        <v>0.002186576436924975</v>
       </c>
       <c r="J3">
-        <v>0.5097566256413455</v>
+        <v>0.002186576436924975</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.3886837029922</v>
+        <v>13.462409</v>
       </c>
       <c r="N3">
-        <v>13.3886837029922</v>
+        <v>40.387227</v>
       </c>
       <c r="O3">
-        <v>0.4085553488378128</v>
+        <v>0.4040340937352229</v>
       </c>
       <c r="P3">
-        <v>0.4085553488378128</v>
+        <v>0.4040340937352229</v>
       </c>
       <c r="Q3">
-        <v>24.26270365176939</v>
+        <v>0.2153940565303333</v>
       </c>
       <c r="R3">
-        <v>24.26270365176939</v>
+        <v>1.938546508773</v>
       </c>
       <c r="S3">
-        <v>0.2082637960112863</v>
+        <v>0.0008834514290757751</v>
       </c>
       <c r="T3">
-        <v>0.2082637960112863</v>
+        <v>0.0008834514290757751</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.81217991178229</v>
+        <v>0.01599966666666667</v>
       </c>
       <c r="H4">
-        <v>1.81217991178229</v>
+        <v>0.047999</v>
       </c>
       <c r="I4">
-        <v>0.5097566256413455</v>
+        <v>0.002186576436924975</v>
       </c>
       <c r="J4">
-        <v>0.5097566256413455</v>
+        <v>0.002186576436924975</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.49542030796181</v>
+        <v>0.02644566666666667</v>
       </c>
       <c r="N4">
-        <v>3.49542030796181</v>
+        <v>0.079337</v>
       </c>
       <c r="O4">
-        <v>0.1066626634054367</v>
+        <v>0.000793687887872851</v>
       </c>
       <c r="P4">
-        <v>0.1066626634054367</v>
+        <v>0.000793687887872851</v>
       </c>
       <c r="Q4">
-        <v>6.334330465324258</v>
+        <v>0.0004231218514444445</v>
       </c>
       <c r="R4">
-        <v>6.334330465324258</v>
+        <v>0.003808096663</v>
       </c>
       <c r="S4">
-        <v>0.05437199937947402</v>
+        <v>1.735459233895528E-06</v>
       </c>
       <c r="T4">
-        <v>0.05437199937947402</v>
+        <v>1.735459233895528E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.74281049075012</v>
+        <v>0.01599966666666667</v>
       </c>
       <c r="H5">
-        <v>1.74281049075012</v>
+        <v>0.047999</v>
       </c>
       <c r="I5">
-        <v>0.4902433743586544</v>
+        <v>0.002186576436924975</v>
       </c>
       <c r="J5">
-        <v>0.4902433743586544</v>
+        <v>0.002186576436924975</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.8866912829468</v>
+        <v>3.587349</v>
       </c>
       <c r="N5">
-        <v>15.8866912829468</v>
+        <v>10.762047</v>
       </c>
       <c r="O5">
-        <v>0.4847819877567505</v>
+        <v>0.1076635914216362</v>
       </c>
       <c r="P5">
-        <v>0.4847819877567505</v>
+        <v>0.1076635914216362</v>
       </c>
       <c r="Q5">
-        <v>27.68749223122817</v>
+        <v>0.05739638821699999</v>
       </c>
       <c r="R5">
-        <v>27.68749223122817</v>
+        <v>0.5165674939529999</v>
       </c>
       <c r="S5">
-        <v>0.2376611575061653</v>
+        <v>0.0002354146721172676</v>
       </c>
       <c r="T5">
-        <v>0.2376611575061653</v>
+        <v>0.0002354146721172676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.74281049075012</v>
+        <v>1.899989666666667</v>
       </c>
       <c r="H6">
-        <v>1.74281049075012</v>
+        <v>5.699969</v>
       </c>
       <c r="I6">
-        <v>0.4902433743586544</v>
+        <v>0.2596599493031691</v>
       </c>
       <c r="J6">
-        <v>0.4902433743586544</v>
+        <v>0.2596599493031691</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.3886837029922</v>
+        <v>16.243779</v>
       </c>
       <c r="N6">
-        <v>13.3886837029922</v>
+        <v>48.731337</v>
       </c>
       <c r="O6">
-        <v>0.4085553488378128</v>
+        <v>0.4875086269552682</v>
       </c>
       <c r="P6">
-        <v>0.4085553488378128</v>
+        <v>0.4875086269552682</v>
       </c>
       <c r="Q6">
-        <v>23.33393841490997</v>
+        <v>30.863012247617</v>
       </c>
       <c r="R6">
-        <v>23.33393841490997</v>
+        <v>277.767110228553</v>
       </c>
       <c r="S6">
-        <v>0.2002915528265265</v>
+        <v>0.1265864653600625</v>
       </c>
       <c r="T6">
-        <v>0.2002915528265265</v>
+        <v>0.1265864653600625</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.74281049075012</v>
+        <v>1.899989666666667</v>
       </c>
       <c r="H7">
-        <v>1.74281049075012</v>
+        <v>5.699969</v>
       </c>
       <c r="I7">
-        <v>0.4902433743586544</v>
+        <v>0.2596599493031691</v>
       </c>
       <c r="J7">
-        <v>0.4902433743586544</v>
+        <v>0.2596599493031691</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.49542030796181</v>
+        <v>13.462409</v>
       </c>
       <c r="N7">
-        <v>3.49542030796181</v>
+        <v>40.387227</v>
       </c>
       <c r="O7">
-        <v>0.1066626634054367</v>
+        <v>0.4040340937352229</v>
       </c>
       <c r="P7">
-        <v>0.1066626634054367</v>
+        <v>0.4040340937352229</v>
       </c>
       <c r="Q7">
-        <v>6.091855182296858</v>
+        <v>25.57843798844033</v>
       </c>
       <c r="R7">
-        <v>6.091855182296858</v>
+        <v>230.205941895963</v>
       </c>
       <c r="S7">
-        <v>0.05229066402596264</v>
+        <v>0.1049114722960398</v>
       </c>
       <c r="T7">
-        <v>0.05229066402596264</v>
+        <v>0.1049114722960398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.899989666666667</v>
+      </c>
+      <c r="H8">
+        <v>5.699969</v>
+      </c>
+      <c r="I8">
+        <v>0.2596599493031691</v>
+      </c>
+      <c r="J8">
+        <v>0.2596599493031691</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.02644566666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.079337</v>
+      </c>
+      <c r="O8">
+        <v>0.000793687887872851</v>
+      </c>
+      <c r="P8">
+        <v>0.000793687887872851</v>
+      </c>
+      <c r="Q8">
+        <v>0.05024649339477778</v>
+      </c>
+      <c r="R8">
+        <v>0.452218440553</v>
+      </c>
+      <c r="S8">
+        <v>0.0002060889567276039</v>
+      </c>
+      <c r="T8">
+        <v>0.0002060889567276039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.899989666666667</v>
+      </c>
+      <c r="H9">
+        <v>5.699969</v>
+      </c>
+      <c r="I9">
+        <v>0.2596599493031691</v>
+      </c>
+      <c r="J9">
+        <v>0.2596599493031691</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.587349</v>
+      </c>
+      <c r="N9">
+        <v>10.762047</v>
+      </c>
+      <c r="O9">
+        <v>0.1076635914216362</v>
+      </c>
+      <c r="P9">
+        <v>0.1076635914216362</v>
+      </c>
+      <c r="Q9">
+        <v>6.815926030727</v>
+      </c>
+      <c r="R9">
+        <v>61.343334276543</v>
+      </c>
+      <c r="S9">
+        <v>0.02795592269033917</v>
+      </c>
+      <c r="T9">
+        <v>0.02795592269033917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.401233333333334</v>
+      </c>
+      <c r="H10">
+        <v>16.2037</v>
+      </c>
+      <c r="I10">
+        <v>0.738153474259906</v>
+      </c>
+      <c r="J10">
+        <v>0.738153474259906</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>16.243779</v>
+      </c>
+      <c r="N10">
+        <v>48.731337</v>
+      </c>
+      <c r="O10">
+        <v>0.4875086269552682</v>
+      </c>
+      <c r="P10">
+        <v>0.4875086269552682</v>
+      </c>
+      <c r="Q10">
+        <v>87.7364405941</v>
+      </c>
+      <c r="R10">
+        <v>789.6279653469001</v>
+      </c>
+      <c r="S10">
+        <v>0.3598561867187077</v>
+      </c>
+      <c r="T10">
+        <v>0.3598561867187077</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.401233333333334</v>
+      </c>
+      <c r="H11">
+        <v>16.2037</v>
+      </c>
+      <c r="I11">
+        <v>0.738153474259906</v>
+      </c>
+      <c r="J11">
+        <v>0.738153474259906</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>13.462409</v>
+      </c>
+      <c r="N11">
+        <v>40.387227</v>
+      </c>
+      <c r="O11">
+        <v>0.4040340937352229</v>
+      </c>
+      <c r="P11">
+        <v>0.4040340937352229</v>
+      </c>
+      <c r="Q11">
+        <v>72.71361223776667</v>
+      </c>
+      <c r="R11">
+        <v>654.4225101398999</v>
+      </c>
+      <c r="S11">
+        <v>0.2982391700101072</v>
+      </c>
+      <c r="T11">
+        <v>0.2982391700101072</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.401233333333334</v>
+      </c>
+      <c r="H12">
+        <v>16.2037</v>
+      </c>
+      <c r="I12">
+        <v>0.738153474259906</v>
+      </c>
+      <c r="J12">
+        <v>0.738153474259906</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02644566666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.079337</v>
+      </c>
+      <c r="O12">
+        <v>0.000793687887872851</v>
+      </c>
+      <c r="P12">
+        <v>0.000793687887872851</v>
+      </c>
+      <c r="Q12">
+        <v>0.1428392163222222</v>
+      </c>
+      <c r="R12">
+        <v>1.2855529469</v>
+      </c>
+      <c r="S12">
+        <v>0.0005858634719113516</v>
+      </c>
+      <c r="T12">
+        <v>0.0005858634719113516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.401233333333334</v>
+      </c>
+      <c r="H13">
+        <v>16.2037</v>
+      </c>
+      <c r="I13">
+        <v>0.738153474259906</v>
+      </c>
+      <c r="J13">
+        <v>0.738153474259906</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.587349</v>
+      </c>
+      <c r="N13">
+        <v>10.762047</v>
+      </c>
+      <c r="O13">
+        <v>0.1076635914216362</v>
+      </c>
+      <c r="P13">
+        <v>0.1076635914216362</v>
+      </c>
+      <c r="Q13">
+        <v>19.3761089971</v>
+      </c>
+      <c r="R13">
+        <v>174.3849809739</v>
+      </c>
+      <c r="S13">
+        <v>0.07947225405917976</v>
+      </c>
+      <c r="T13">
+        <v>0.07947225405917976</v>
       </c>
     </row>
   </sheetData>
